--- a/URS/DbLayouts/L2-業務作業/ClStock.xlsx
+++ b/URS/DbLayouts/L2-業務作業/ClStock.xlsx
@@ -9,26 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20952" windowHeight="7812"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20952" windowHeight="7812"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="124">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -241,9 +233,6 @@
     <t>質權設定書號</t>
   </si>
   <si>
-    <t>計算維持率</t>
-  </si>
-  <si>
     <t>Y:是
 N:否</t>
   </si>
@@ -405,14 +394,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ClMtr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoticeMtr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ImplementMtr</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -421,10 +402,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ComputeMTR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SettingDate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -441,23 +418,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>股票持有人統編</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>公司內部人職稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票持有人姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OwnerName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -540,23 +501,61 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>OwnerId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StockCode = ,AND OwnerId =</t>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-13 智偉
+舊資料轉換有串不到值的會在前面加"Old"寫入
+因此將欄位放大到10碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClStock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerCustUKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶識別碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerCustUKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StockCode = ,AND OwnerCustUKey =</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ClStock</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
+    <t>ComputeMTR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>計算維持率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClMtr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeMtr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全戶維持率(%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcMtr</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +650,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,6 +661,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -734,7 +739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,6 +810,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1112,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1126,29 +1140,30 @@
     <col min="4" max="4" width="27.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="8" max="8" width="50.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="21"/>
       <c r="C2" s="12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>21</v>
@@ -1157,74 +1172,76 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>66</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="20"/>
-      <c r="C7" s="15"/>
+      <c r="C7" s="18" t="s">
+        <v>116</v>
+      </c>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>27</v>
       </c>
@@ -1247,15 +1264,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>19</v>
@@ -1265,18 +1282,19 @@
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
+        <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>19</v>
@@ -1286,18 +1304,19 @@
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
+        <f t="shared" ref="A11:A45" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>19</v>
@@ -1308,12 +1327,13 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>28</v>
@@ -1321,18 +1341,22 @@
       <c r="D12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="18">
-        <v>4</v>
+      <c r="E12" s="24">
+        <v>10</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="H12" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="81" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>29</v>
@@ -1345,15 +1369,16 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>30</v>
@@ -1366,15 +1391,16 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>31</v>
@@ -1388,12 +1414,13 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>32</v>
@@ -1409,10 +1436,11 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>33</v>
@@ -1430,10 +1458,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>34</v>
@@ -1451,10 +1480,11 @@
     </row>
     <row r="19" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>35</v>
@@ -1467,15 +1497,16 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>36</v>
@@ -1493,10 +1524,11 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>37</v>
@@ -1514,10 +1546,11 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>38</v>
@@ -1535,10 +1568,11 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>39</v>
@@ -1556,10 +1590,11 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>40</v>
@@ -1577,51 +1612,56 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="18">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="18">
+        <v>2</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="18">
-        <v>100</v>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>87</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>3</v>
@@ -1631,58 +1671,61 @@
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>88</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F28" s="18"/>
-      <c r="G28" s="18" t="s">
-        <v>112</v>
-      </c>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>89</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E29" s="18">
-        <v>10</v>
-      </c>
-      <c r="F29" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="F29" s="18">
+        <v>2</v>
+      </c>
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>43</v>
+      <c r="B30" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>19</v>
@@ -1697,13 +1740,14 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>63</v>
+      <c r="B31" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>19</v>
@@ -1718,13 +1762,14 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
+        <f>A31+1</f>
         <v>24</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>44</v>
+      <c r="B32" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>19</v>
@@ -1739,13 +1784,14 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
+        <f>A32+1</f>
         <v>25</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>45</v>
+      <c r="B33" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>19</v>
@@ -1760,16 +1806,17 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E34" s="18">
         <v>14</v>
@@ -1779,13 +1826,14 @@
     </row>
     <row r="35" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>47</v>
+      <c r="B35" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>119</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>3</v>
@@ -1795,18 +1843,19 @@
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
+        <f>A35+1</f>
         <v>28</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>3</v>
@@ -1816,18 +1865,19 @@
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
+        <f>A36+1</f>
         <v>29</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>3</v>
@@ -1837,21 +1887,22 @@
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E38" s="18">
         <v>8</v>
@@ -1861,13 +1912,14 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
+        <f>A38+1</f>
         <v>31</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>19</v>
@@ -1882,16 +1934,17 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E40" s="18">
         <v>8</v>
@@ -1901,16 +1954,17 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E41" s="18">
         <v>5</v>
@@ -1920,6 +1974,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
+        <f>A41+1</f>
         <v>34</v>
       </c>
       <c r="B42" s="18" t="s">
@@ -1937,6 +1992,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B43" s="18" t="s">
@@ -1956,6 +2012,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B44" s="18" t="s">
@@ -1973,6 +2030,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
+        <f>A44+1</f>
         <v>37</v>
       </c>
       <c r="B45" s="18" t="s">
@@ -2183,7 +2241,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2207,26 +2265,26 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
